--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_14_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_14_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1689525.002971099</v>
+        <v>1787662.007514036</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10711282.48921545</v>
+        <v>12033284.58672667</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3055598.214816777</v>
+        <v>4177186.784547884</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9347533.868920654</v>
+        <v>8869933.99006233</v>
       </c>
     </row>
     <row r="11">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -987,11 +989,11 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
@@ -1020,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="T6" t="n">
-        <v>6.876045741711437</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.62972399398512</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="F8" t="n">
-        <v>14.23809490475945</v>
+        <v>12.46326292246987</v>
       </c>
       <c r="G8" t="n">
-        <v>14.14928490288645</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.23809490475945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>14.23809490475945</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>14.23809490475945</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>14.23809490475945</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>12.54091399211212</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>12.46326292246987</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>14.23809490475945</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>12.54091399211212</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23809490475945</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="R10" t="n">
-        <v>14.23809490475945</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>12.46326292246987</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1370,19 +1372,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>83.91763484385194</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>199.7325946875385</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.1480515981181</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>330.7598727037317</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>214.6609491381289</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>50.36860283745274</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.25987342206868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>103.6446362310496</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1904,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>46.42246812243229</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>91.95187857709232</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>148.5873298926978</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>256.8241943842555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491561</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>253.0207069265283</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>14.31259208839388</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>150.2062474346973</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>71.31461021972551</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>140.5010290442966</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>6.380068175848154</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9951719589016</v>
+        <v>105.0023863360933</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.10873435712715</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>204.1149264341229</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,13 +3085,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9951719589016</v>
+        <v>50.44782887801009</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>67.41386939711249</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>29.27342695546582</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>310.9299993360286</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>126.9921629678194</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.5067518924962</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>284.7781523974834</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3560,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>168.1158122680976</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>99.67559974153366</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3715,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>135.5705851936315</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>228.5930019368667</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>252.3474771205404</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>91.47612611658029</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3952,19 +3954,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>40.61077471343791</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>384.6677347133207</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>147.5395905665098</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>71.67037196991681</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F5" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G5" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I5" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="K5" t="n">
         <v>7.082327113962777</v>
-      </c>
-      <c r="K5" t="n">
-        <v>13.8896123982571</v>
       </c>
       <c r="L5" t="n">
         <v>13.8896123982571</v>
       </c>
       <c r="M5" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="O5" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="P5" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="N5" t="n">
-        <v>20.69689768255142</v>
-      </c>
-      <c r="O5" t="n">
-        <v>20.69689768255142</v>
-      </c>
-      <c r="P5" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
         <v>27.50418296684575</v>
@@ -4635,7 +4637,7 @@
         <v>7.495584408540386</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H6" t="n">
         <v>0.5500836593369149</v>
@@ -4644,13 +4646,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="K6" t="n">
         <v>7.082327113962777</v>
       </c>
       <c r="L6" t="n">
-        <v>13.8896123982571</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M6" t="n">
         <v>13.8896123982571</v>
@@ -4659,7 +4661,7 @@
         <v>20.69689768255142</v>
       </c>
       <c r="O6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P6" t="n">
         <v>27.50418296684575</v>
@@ -4668,16 +4670,16 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T6" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U6" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V6" t="n">
         <v>7.495584408540386</v>
@@ -4699,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C7" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D7" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E7" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F7" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H7" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I7" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J7" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M7" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N7" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
@@ -4753,22 +4755,22 @@
         <v>20.55868221764227</v>
       </c>
       <c r="T7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W7" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X7" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.81316861020489</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="C8" t="n">
-        <v>29.81316861020489</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="D8" t="n">
-        <v>29.81316861020489</v>
+        <v>42.306876955879</v>
       </c>
       <c r="E8" t="n">
-        <v>29.81316861020489</v>
+        <v>28.01401311943339</v>
       </c>
       <c r="F8" t="n">
-        <v>15.43125456499333</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="G8" t="n">
-        <v>1.139047592380756</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="H8" t="n">
-        <v>1.139047592380756</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="I8" t="n">
-        <v>1.139047592380756</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="J8" t="n">
-        <v>1.139047592380756</v>
+        <v>15.14043066194683</v>
       </c>
       <c r="K8" t="n">
-        <v>1.139047592380756</v>
+        <v>15.14043066194683</v>
       </c>
       <c r="L8" t="n">
-        <v>14.66523775190223</v>
+        <v>15.14043066194683</v>
       </c>
       <c r="M8" t="n">
-        <v>28.76095170761408</v>
+        <v>29.14886650804717</v>
       </c>
       <c r="N8" t="n">
-        <v>42.85666566332593</v>
+        <v>42.59130494622427</v>
       </c>
       <c r="O8" t="n">
-        <v>56.95237961903779</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="P8" t="n">
-        <v>56.95237961903779</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="Q8" t="n">
-        <v>56.95237961903779</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="R8" t="n">
-        <v>56.95237961903779</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="S8" t="n">
-        <v>56.95237961903779</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="T8" t="n">
-        <v>56.95237961903779</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="U8" t="n">
-        <v>56.95237961903779</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="V8" t="n">
-        <v>56.95237961903779</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="W8" t="n">
-        <v>56.95237961903779</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="X8" t="n">
-        <v>56.95237961903779</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="Y8" t="n">
-        <v>42.57046557382623</v>
+        <v>56.59974079232461</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.52096163759232</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="C9" t="n">
-        <v>1.139047592380756</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="D9" t="n">
-        <v>1.139047592380756</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="E9" t="n">
-        <v>1.139047592380756</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="F9" t="n">
-        <v>1.139047592380756</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="G9" t="n">
-        <v>1.139047592380756</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="H9" t="n">
-        <v>1.139047592380756</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="I9" t="n">
-        <v>1.139047592380756</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="J9" t="n">
-        <v>14.66523775190223</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="K9" t="n">
-        <v>14.66523775190223</v>
+        <v>15.14043066194683</v>
       </c>
       <c r="L9" t="n">
-        <v>14.66523775190223</v>
+        <v>15.14043066194683</v>
       </c>
       <c r="M9" t="n">
-        <v>28.76095170761408</v>
+        <v>29.14886650804717</v>
       </c>
       <c r="N9" t="n">
-        <v>42.85666566332593</v>
+        <v>43.15730235414752</v>
       </c>
       <c r="O9" t="n">
-        <v>56.95237961903779</v>
+        <v>47.27275876732836</v>
       </c>
       <c r="P9" t="n">
-        <v>56.95237961903779</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.95237961903779</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="R9" t="n">
-        <v>42.57046557382623</v>
+        <v>42.306876955879</v>
       </c>
       <c r="S9" t="n">
-        <v>42.57046557382623</v>
+        <v>42.306876955879</v>
       </c>
       <c r="T9" t="n">
-        <v>28.18855152861466</v>
+        <v>42.306876955879</v>
       </c>
       <c r="U9" t="n">
-        <v>15.52096163759232</v>
+        <v>28.01401311943339</v>
       </c>
       <c r="V9" t="n">
-        <v>15.52096163759232</v>
+        <v>28.01401311943339</v>
       </c>
       <c r="W9" t="n">
-        <v>15.52096163759232</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="X9" t="n">
-        <v>15.52096163759232</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.52096163759232</v>
+        <v>1.131994815846492</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.18855152861466</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="C10" t="n">
-        <v>28.18855152861466</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="D10" t="n">
-        <v>28.18855152861466</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="E10" t="n">
-        <v>28.18855152861466</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="F10" t="n">
-        <v>13.8066374834031</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="G10" t="n">
-        <v>13.8066374834031</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="H10" t="n">
-        <v>13.8066374834031</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="I10" t="n">
-        <v>1.139047592380756</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="J10" t="n">
-        <v>1.139047592380756</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="K10" t="n">
-        <v>1.139047592380756</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="L10" t="n">
-        <v>15.23476154809261</v>
+        <v>15.14043066194683</v>
       </c>
       <c r="M10" t="n">
-        <v>29.33047550380446</v>
+        <v>29.14886650804717</v>
       </c>
       <c r="N10" t="n">
-        <v>43.42618945951631</v>
+        <v>43.15730235414752</v>
       </c>
       <c r="O10" t="n">
-        <v>56.95237961903779</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="P10" t="n">
-        <v>56.95237961903779</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.57046557382623</v>
+        <v>42.306876955879</v>
       </c>
       <c r="R10" t="n">
-        <v>28.18855152861466</v>
+        <v>42.306876955879</v>
       </c>
       <c r="S10" t="n">
-        <v>28.18855152861466</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="T10" t="n">
-        <v>28.18855152861466</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="U10" t="n">
-        <v>28.18855152861466</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="V10" t="n">
-        <v>28.18855152861466</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="W10" t="n">
-        <v>28.18855152861466</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="X10" t="n">
-        <v>28.18855152861466</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.18855152861466</v>
+        <v>29.71772248873771</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1381.278680221568</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="C11" t="n">
-        <v>1012.316163281156</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="D11" t="n">
-        <v>654.0504646744059</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>268.2622120761617</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5060,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>2884.252265792696</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W11" t="n">
-        <v>2531.483610522581</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X11" t="n">
-        <v>2158.017852261502</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y11" t="n">
-        <v>1767.87852028569</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5124,40 +5126,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>531.3099827059882</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>362.3737997780813</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5224,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1161.740577577775</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>933.7510266797581</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>712.9584475362279</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2222.416181075866</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C14" t="n">
-        <v>1853.453664135455</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D14" t="n">
-        <v>1495.187965528704</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>1109.39971293046</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>698.4138081408526</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>283.341357985849</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
@@ -5279,13 +5281,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
@@ -5306,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>2961.784676410103</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W14" t="n">
-        <v>2609.016021139988</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X14" t="n">
-        <v>2609.016021139988</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y14" t="n">
-        <v>2609.016021139988</v>
+        <v>1952.040104645724</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>848.0708164780106</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C16" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1876.417171485005</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1876.417171485005</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1876.417171485005</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1876.417171485005</v>
       </c>
       <c r="V16" t="n">
-        <v>1134.908724368016</v>
+        <v>1621.732683279118</v>
       </c>
       <c r="W16" t="n">
-        <v>1134.908724368016</v>
+        <v>1332.315513242158</v>
       </c>
       <c r="X16" t="n">
-        <v>906.9191734699991</v>
+        <v>1104.32596234414</v>
       </c>
       <c r="Y16" t="n">
-        <v>848.0708164780106</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1601.11348746897</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="C17" t="n">
-        <v>1232.150970528558</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D17" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3220.914269860637</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>2967.383793134473</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2636.320905790902</v>
       </c>
       <c r="W17" t="n">
-        <v>2377.852659508903</v>
+        <v>2283.552250520788</v>
       </c>
       <c r="X17" t="n">
-        <v>2377.852659508903</v>
+        <v>1910.086492259708</v>
       </c>
       <c r="Y17" t="n">
-        <v>1987.713327533092</v>
+        <v>1519.947160283896</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5585,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5595,25 +5597,25 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="C19" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D19" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E19" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F19" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5674,16 +5676,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5698,25 +5700,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1552.897521241441</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1263.794654367085</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.110166161198</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>719.6929961242373</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X19" t="n">
-        <v>491.70344522622</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y19" t="n">
-        <v>491.70344522622</v>
+        <v>212.7293032143257</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.569348694473</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C20" t="n">
-        <v>1491.569348694473</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D20" t="n">
-        <v>1491.569348694473</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5786,16 +5788,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2994.542934265601</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2641.774278995486</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.308520734407</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.169188758595</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="21">
@@ -5820,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>624.6477645191717</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="C22" t="n">
-        <v>624.6477645191717</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="D22" t="n">
-        <v>624.6477645191717</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>2928.458509941852</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>2639.355643067495</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621296</v>
+        <v>2384.671154861609</v>
       </c>
       <c r="W22" t="n">
-        <v>624.6477645191717</v>
+        <v>2095.253984824648</v>
       </c>
       <c r="X22" t="n">
-        <v>624.6477645191717</v>
+        <v>1867.264433926631</v>
       </c>
       <c r="Y22" t="n">
-        <v>624.6477645191717</v>
+        <v>1646.471854783101</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1120.662598458018</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1523.103642431788</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>1523.103642431788</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V25" t="n">
-        <v>1523.103642431788</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W25" t="n">
-        <v>1523.103642431788</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.103642431788</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y25" t="n">
-        <v>1302.311063288258</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>1236.335336125843</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2883.993034926781</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>3763.957685256236</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3303.405146800852</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C28" t="n">
-        <v>3303.405146800852</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>3303.405146800852</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>3303.405146800852</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>3156.515199302942</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>3014.594967945066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.051722419721</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>4586.365838246547</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="T28" t="n">
-        <v>4364.599222816073</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U28" t="n">
-        <v>4075.496355941717</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V28" t="n">
-        <v>3820.81186773583</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W28" t="n">
-        <v>3531.394697698869</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X28" t="n">
-        <v>3303.405146800852</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y28" t="n">
-        <v>3303.405146800852</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2883.993034926781</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>3763.957685256236</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3794.457761190642</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C31" t="n">
-        <v>3625.521578262736</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D31" t="n">
-        <v>3475.4049388504</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E31" t="n">
-        <v>3475.4049388504</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F31" t="n">
-        <v>3328.51499135249</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G31" t="n">
-        <v>3160.812154727209</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>4714.305526099391</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>4714.305526099391</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>4714.305526099391</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>4714.305526099391</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V31" t="n">
-        <v>4714.305526099391</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W31" t="n">
-        <v>4424.88835606243</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X31" t="n">
-        <v>4196.898805164413</v>
+        <v>384.6303727573681</v>
       </c>
       <c r="Y31" t="n">
-        <v>3976.106226020882</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551622</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>2958.380002613407</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>339.1038984121913</v>
+        <v>471.2459535582122</v>
       </c>
       <c r="C34" t="n">
-        <v>339.1038984121913</v>
+        <v>302.3097706303054</v>
       </c>
       <c r="D34" t="n">
-        <v>339.1038984121913</v>
+        <v>302.3097706303054</v>
       </c>
       <c r="E34" t="n">
-        <v>339.1038984121913</v>
+        <v>302.3097706303054</v>
       </c>
       <c r="F34" t="n">
-        <v>339.1038984121913</v>
+        <v>302.3097706303054</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>134.6069340050243</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W34" t="n">
-        <v>969.5344932839785</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X34" t="n">
-        <v>741.5449423859611</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y34" t="n">
-        <v>520.752363242431</v>
+        <v>652.894418388452</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1904.487375535338</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C35" t="n">
-        <v>1904.487375535338</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D35" t="n">
-        <v>1546.221676928587</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410103</v>
+        <v>2991.353161904686</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.721789066532</v>
+        <v>2660.290274561115</v>
       </c>
       <c r="W35" t="n">
-        <v>2277.953133796418</v>
+        <v>2307.521619291001</v>
       </c>
       <c r="X35" t="n">
-        <v>1904.487375535338</v>
+        <v>2307.521619291001</v>
       </c>
       <c r="Y35" t="n">
-        <v>1904.487375535338</v>
+        <v>1917.382287315189</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2489.924953962486</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C37" t="n">
-        <v>2320.988771034579</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D37" t="n">
-        <v>2170.872131622243</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.95903803985</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F37" t="n">
-        <v>1876.06909054194</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>1708.366253916659</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W37" t="n">
-        <v>3036.188651572211</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X37" t="n">
-        <v>2808.199100674194</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y37" t="n">
-        <v>2587.406521530664</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>1878.169188758595</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>1509.206671818183</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>1150.940973211433</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>765.1527206131884</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>354.1668158235809</v>
       </c>
       <c r="G38" t="n">
         <v>66.51211643218343</v>
@@ -7172,25 +7174,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052369</v>
@@ -7208,16 +7210,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W38" t="n">
-        <v>3155.791869823214</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X38" t="n">
-        <v>2782.326111562134</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.186779586323</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1042.179465010819</v>
+        <v>2489.924953962486</v>
       </c>
       <c r="C40" t="n">
-        <v>873.2432820829119</v>
+        <v>2320.988771034579</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U40" t="n">
-        <v>1927.294548088493</v>
+        <v>3036.502954734815</v>
       </c>
       <c r="V40" t="n">
-        <v>1672.610059882606</v>
+        <v>3036.502954734815</v>
       </c>
       <c r="W40" t="n">
-        <v>1672.610059882606</v>
+        <v>3036.502954734815</v>
       </c>
       <c r="X40" t="n">
-        <v>1444.620508984588</v>
+        <v>2808.513403836798</v>
       </c>
       <c r="Y40" t="n">
-        <v>1223.827929841058</v>
+        <v>2671.573418792726</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2217.803762225666</v>
+        <v>1845.410930903097</v>
       </c>
       <c r="C41" t="n">
-        <v>1848.841245285254</v>
+        <v>1476.448413962685</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>1118.182715355935</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>732.3944627576905</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>321.4085579680829</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>321.4085579680829</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.542934265599</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W41" t="n">
-        <v>2994.542934265599</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X41" t="n">
-        <v>2994.542934265599</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y41" t="n">
-        <v>2604.403602289788</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7487,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,10 +7508,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>793.5809963705854</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="C43" t="n">
-        <v>624.6448134426785</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D43" t="n">
-        <v>474.5281740303427</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E43" t="n">
-        <v>326.6150804479496</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1424.011591242373</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>1424.011591242373</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>1196.022040344355</v>
+        <v>639.6165388086131</v>
       </c>
       <c r="Y43" t="n">
-        <v>975.2294612008251</v>
+        <v>639.6165388086131</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1979.06775675439</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C44" t="n">
-        <v>1610.105239813978</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D44" t="n">
-        <v>1251.839541207228</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>866.0512886089837</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>455.0653838193761</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7664,34 +7666,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3066.285263675145</v>
       </c>
       <c r="V44" t="n">
-        <v>2755.806928794324</v>
+        <v>2735.222376331575</v>
       </c>
       <c r="W44" t="n">
-        <v>2755.806928794324</v>
+        <v>2382.45372106146</v>
       </c>
       <c r="X44" t="n">
-        <v>2755.806928794324</v>
+        <v>2008.98796280038</v>
       </c>
       <c r="Y44" t="n">
-        <v>2365.667596818512</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7724,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,10 +7745,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>680.3679798527295</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C46" t="n">
-        <v>511.4317969248226</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D46" t="n">
-        <v>361.3151575124868</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V46" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W46" t="n">
-        <v>1310.798574724517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X46" t="n">
-        <v>1082.809023826499</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y46" t="n">
-        <v>862.0164446829692</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>124.2335493290165</v>
       </c>
       <c r="K2" t="n">
-        <v>202.1809638361346</v>
+        <v>134.9428576874868</v>
       </c>
       <c r="L2" t="n">
-        <v>213.5488567752802</v>
+        <v>130.1340404978297</v>
       </c>
       <c r="M2" t="n">
-        <v>205.6249188705004</v>
+        <v>112.8098634474193</v>
       </c>
       <c r="N2" t="n">
-        <v>204.2917325281876</v>
+        <v>109.9748324732081</v>
       </c>
       <c r="O2" t="n">
-        <v>206.3768508508745</v>
+        <v>117.3160766413643</v>
       </c>
       <c r="P2" t="n">
-        <v>210.9873633211545</v>
+        <v>134.9760530271715</v>
       </c>
       <c r="Q2" t="n">
-        <v>207.1020630664798</v>
+        <v>150.0207346043882</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>93.00057711453113</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>80.00853180380167</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>60.79089906502939</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>51.38771979422148</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>38.19361304465882</v>
       </c>
       <c r="O3" t="n">
-        <v>124.673618687554</v>
+        <v>57.38393178232577</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>65.58401405279278</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>94.26460728014649</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>94.12867719435118</v>
       </c>
       <c r="L4" t="n">
-        <v>125.4955336943436</v>
+        <v>90.24442297259068</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0262495446562</v>
+        <v>91.85889585900225</v>
       </c>
       <c r="N4" t="n">
-        <v>118.0213988638391</v>
+        <v>81.7378017757098</v>
       </c>
       <c r="O4" t="n">
-        <v>129.5301358016631</v>
+        <v>96.01636122040992</v>
       </c>
       <c r="P4" t="n">
-        <v>130.0899244982092</v>
+        <v>101.4131006604814</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>103.3431468236027</v>
+        <v>96.74492111185943</v>
       </c>
       <c r="K5" t="n">
-        <v>100.6205754234462</v>
+        <v>100.3427553934781</v>
       </c>
       <c r="L5" t="n">
-        <v>79.02387160133335</v>
+        <v>85.89991734304479</v>
       </c>
       <c r="M5" t="n">
-        <v>62.8159984165317</v>
+        <v>55.93995267482026</v>
       </c>
       <c r="N5" t="n">
         <v>52.18470708864717</v>
@@ -8234,7 +8236,7 @@
         <v>95.27822759655393</v>
       </c>
       <c r="Q5" t="n">
-        <v>115.0456969704258</v>
+        <v>121.9217427121372</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,25 +8294,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>76.62853846434811</v>
+        <v>83.22676417609141</v>
       </c>
       <c r="K6" t="n">
-        <v>58.62433576243288</v>
+        <v>52.02611005068958</v>
       </c>
       <c r="L6" t="n">
-        <v>30.04112551435379</v>
+        <v>23.16507977264236</v>
       </c>
       <c r="M6" t="n">
-        <v>7.480163375249674</v>
+        <v>14.35620911696111</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>23.0300448070567</v>
+        <v>16.15399906534526</v>
       </c>
       <c r="P6" t="n">
-        <v>32.49335815233935</v>
+        <v>39.36940389405079</v>
       </c>
       <c r="Q6" t="n">
         <v>72.14438013772387</v>
@@ -8374,10 +8376,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>83.84801672668524</v>
+        <v>77.24979101494196</v>
       </c>
       <c r="L7" t="n">
-        <v>68.64525986006655</v>
+        <v>75.52130560177798</v>
       </c>
       <c r="M7" t="n">
         <v>75.96165252469231</v>
@@ -8386,10 +8388,10 @@
         <v>66.38205635482377</v>
       </c>
       <c r="O7" t="n">
-        <v>82.35774950379157</v>
+        <v>75.48170376208013</v>
       </c>
       <c r="P7" t="n">
-        <v>83.84215373318403</v>
+        <v>90.44037944492732</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>83.14805587785142</v>
+        <v>97.35318406771486</v>
       </c>
       <c r="K8" t="n">
-        <v>73.36635331966232</v>
+        <v>73.44907330703683</v>
       </c>
       <c r="L8" t="n">
-        <v>67.40576020551681</v>
+        <v>53.84556332150555</v>
       </c>
       <c r="M8" t="n">
-        <v>42.04814213153469</v>
+        <v>42.0741685709651</v>
       </c>
       <c r="N8" t="n">
-        <v>37.8377252663015</v>
+        <v>37.29388480349608</v>
       </c>
       <c r="O8" t="n">
-        <v>49.99251750444438</v>
+        <v>50.01392522225433</v>
       </c>
       <c r="P8" t="n">
-        <v>65.36506829815514</v>
+        <v>65.4585815600239</v>
       </c>
       <c r="Q8" t="n">
-        <v>97.74578409348818</v>
+        <v>97.81600865869628</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>82.19315702177587</v>
+        <v>68.56321124662058</v>
       </c>
       <c r="K9" t="n">
-        <v>38.18499675494618</v>
+        <v>52.39111640725574</v>
       </c>
       <c r="L9" t="n">
-        <v>4.553994847043384</v>
+        <v>4.629541779345772</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.998284779942765</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>16.12552832725648</v>
+        <v>25.61316330469748</v>
       </c>
       <c r="Q9" t="n">
-        <v>61.20291936255707</v>
+        <v>61.24733342008113</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90088619260729</v>
+        <v>68.93477643328555</v>
       </c>
       <c r="L10" t="n">
-        <v>72.19963101956296</v>
+        <v>72.15483915295134</v>
       </c>
       <c r="M10" t="n">
-        <v>72.05921296696434</v>
+        <v>72.01677856701649</v>
       </c>
       <c r="N10" t="n">
-        <v>62.7474611615056</v>
+        <v>62.70393951596478</v>
       </c>
       <c r="O10" t="n">
-        <v>78.9873411834615</v>
+        <v>78.94397395947387</v>
       </c>
       <c r="P10" t="n">
-        <v>75.15093074755487</v>
+        <v>75.18621054113731</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9641,16 +9643,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10112,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10352,16 +10354,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -22559,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>14.63336264719685</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23258,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>270.765406776831</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>207.143451054173</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4674214200942686</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23433,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23464,7 +23466,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>51.9739689597489</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>79.94681524919156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>38.56354983259459</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>160.3247799300261</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23732,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>100.2733339085705</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302.8185005949807</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>127.5970706990769</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>69.99732345939699</v>
       </c>
     </row>
     <row r="20">
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>125.1061756880063</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,7 +24028,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>105.0742887270131</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>33.50229141006267</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24215,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>236.6825798705081</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>69.34270184147189</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>311.4192314437551</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>25.52477921473167</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.3889571555937</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24689,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>145.9927856228087</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>25.82341831292018</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>21.59472895491427</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>200.5473430808919</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>77.34114551720829</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>257.2495713811252</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>71.00037073623315</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>124.0030089910825</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>83.3252282894411</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>126.14357325597</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25448,10 +25450,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>181.1251564493154</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>48.9398732766787</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25603,10 +25605,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>83.01406815846326</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>126.0900396838162</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>42.26028726678001</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94492190635096</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>185.0988806755992</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>26.25399094013272</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>103.4555813923922</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>70.66335656800746</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26041,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>214.5414662356961</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>929557.0392719023</v>
+        <v>904733.6654692908</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>886745.3505178151</v>
+        <v>886758.2257985352</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>724633.1233491061</v>
+        <v>724633.1233491059</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>724633.1233491062</v>
+        <v>724633.1233491061</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>882467.3719532922</v>
+        <v>724633.1233491061</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>882467.3719532922</v>
+        <v>724633.1233491059</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>882467.3719532922</v>
+        <v>724633.1233491061</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>882467.3719532922</v>
+        <v>724633.1233491059</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>724633.1233491062</v>
+        <v>724633.1233491061</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>724633.1233491061</v>
+        <v>724633.1233491059</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>724633.1233491059</v>
+        <v>724633.1233491061</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573501.2818643278</v>
+        <v>573530.7346695684</v>
       </c>
       <c r="C2" t="n">
         <v>574315.0476155346</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
         <v>477395.938559289</v>
@@ -26326,34 +26328,34 @@
         <v>477395.938559289</v>
       </c>
       <c r="G2" t="n">
-        <v>477395.9385592891</v>
+        <v>477395.9385592889</v>
       </c>
       <c r="H2" t="n">
+        <v>477395.9385592889</v>
+      </c>
+      <c r="I2" t="n">
         <v>477395.938559289</v>
       </c>
-      <c r="I2" t="n">
-        <v>555914.5016417763</v>
-      </c>
       <c r="J2" t="n">
-        <v>555914.5016417766</v>
+        <v>477395.9385592889</v>
       </c>
       <c r="K2" t="n">
-        <v>555914.5016417764</v>
+        <v>477395.9385592889</v>
       </c>
       <c r="L2" t="n">
-        <v>555914.5016417764</v>
+        <v>477395.9385592889</v>
       </c>
       <c r="M2" t="n">
+        <v>477395.9385592889</v>
+      </c>
+      <c r="N2" t="n">
         <v>477395.938559289</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>477395.938559289</v>
+      </c>
+      <c r="P2" t="n">
         <v>477395.9385592889</v>
-      </c>
-      <c r="O2" t="n">
-        <v>477395.9385592889</v>
-      </c>
-      <c r="P2" t="n">
-        <v>477395.9385592887</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33746.9421053385</v>
+        <v>160448.30824886</v>
       </c>
       <c r="C3" t="n">
-        <v>195314.6588120798</v>
+        <v>75583.48310873944</v>
       </c>
       <c r="D3" t="n">
-        <v>36414.98424273916</v>
+        <v>36249.06486821849</v>
       </c>
       <c r="E3" t="n">
-        <v>889003.4092890969</v>
+        <v>889159.6910541893</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>96558.96659736053</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>1769.674140452789</v>
       </c>
       <c r="L3" t="n">
-        <v>1863.268384724984</v>
+        <v>1840.955956402068</v>
       </c>
       <c r="M3" t="n">
-        <v>113151.5460230293</v>
+        <v>203662.3478409703</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>411694.2603148145</v>
+        <v>381550.6998587567</v>
       </c>
       <c r="C4" t="n">
         <v>362927.8785931707</v>
       </c>
       <c r="D4" t="n">
-        <v>353483.2634777264</v>
+        <v>353530.8414321567</v>
       </c>
       <c r="E4" t="n">
         <v>9160.459137079168</v>
@@ -26430,22 +26432,22 @@
         <v>9160.459137079168</v>
       </c>
       <c r="G4" t="n">
-        <v>9160.459137079155</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="H4" t="n">
         <v>9160.459137079168</v>
       </c>
       <c r="I4" t="n">
-        <v>49388.53342030741</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="J4" t="n">
-        <v>49388.53342030739</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="K4" t="n">
-        <v>49388.53342030739</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="L4" t="n">
-        <v>49388.53342030741</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="M4" t="n">
         <v>9160.459137079168</v>
@@ -26454,10 +26456,10 @@
         <v>9160.459137079168</v>
       </c>
       <c r="O4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="P4" t="n">
-        <v>9160.459137079182</v>
+        <v>9160.459137079168</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34391.06348367693</v>
+        <v>37257.45256511187</v>
       </c>
       <c r="C5" t="n">
         <v>39431.8184029668</v>
       </c>
       <c r="D5" t="n">
-        <v>40748.16132328048</v>
+        <v>40739.27482484731</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26482,22 +26484,22 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26506,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93669.01596049801</v>
+        <v>-5725.726003160249</v>
       </c>
       <c r="C6" t="n">
-        <v>-23359.30819268266</v>
+        <v>96371.86751065767</v>
       </c>
       <c r="D6" t="n">
-        <v>144082.8298612526</v>
+        <v>144210.0577797757</v>
       </c>
       <c r="E6" t="n">
-        <v>-495074.2704282805</v>
+        <v>-495230.5521933728</v>
       </c>
       <c r="F6" t="n">
         <v>393929.1388608165</v>
       </c>
       <c r="G6" t="n">
-        <v>393929.1388608167</v>
+        <v>393929.1388608164</v>
       </c>
       <c r="H6" t="n">
-        <v>393929.1388608167</v>
+        <v>393929.1388608164</v>
       </c>
       <c r="I6" t="n">
-        <v>313583.4833703947</v>
+        <v>393929.1388608165</v>
       </c>
       <c r="J6" t="n">
-        <v>410142.4499677556</v>
+        <v>393929.1388608164</v>
       </c>
       <c r="K6" t="n">
-        <v>408372.7758273026</v>
+        <v>392159.4647203636</v>
       </c>
       <c r="L6" t="n">
-        <v>408279.1815830304</v>
+        <v>392088.1829044143</v>
       </c>
       <c r="M6" t="n">
-        <v>280777.5928377873</v>
+        <v>190266.7910198461</v>
       </c>
       <c r="N6" t="n">
         <v>393929.1388608165</v>
@@ -26561,7 +26563,7 @@
         <v>393929.1388608165</v>
       </c>
       <c r="P6" t="n">
-        <v>393929.1388608163</v>
+        <v>393929.1388608164</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>166.5069983996272</v>
       </c>
       <c r="C3" t="n">
         <v>247.0713221041627</v>
       </c>
       <c r="D3" t="n">
-        <v>286.92133729684</v>
+        <v>286.759576367155</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26793,10 +26795,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>14.23809490475945</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26805,31 +26807,31 @@
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="I4" t="n">
-        <v>1194.51293060493</v>
-      </c>
       <c r="J4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>166.5069983996272</v>
       </c>
       <c r="C3" t="n">
-        <v>212.0500613850373</v>
+        <v>80.56432370453541</v>
       </c>
       <c r="D3" t="n">
-        <v>39.85001519267732</v>
+        <v>39.68825426299239</v>
       </c>
       <c r="E3" t="n">
-        <v>802.8553632964581</v>
+        <v>803.0171242261433</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>7.36204916304801</v>
+        <v>7.273889456369716</v>
       </c>
       <c r="E4" t="n">
-        <v>817.1633604975334</v>
+        <v>817.2515202042115</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>363.1114752026374</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L4" t="n">
-        <v>7.36204916304801</v>
+        <v>7.273889456369716</v>
       </c>
       <c r="M4" t="n">
-        <v>454.051885294896</v>
+        <v>817.2515202042115</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L4" t="n">
-        <v>7.36204916304801</v>
+        <v>7.273889456369716</v>
       </c>
       <c r="M4" t="n">
-        <v>817.1633604975334</v>
+        <v>817.2515202042115</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>332.619566749495</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>184.6698149742185</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>107.8214988930267</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>193.7666897831036</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>220.1656610797319</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>251.2921029184014</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>136.9853700345775</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>108.7764969678552</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>77.06569004540495</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>77.9212957625948</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>165.0307452715508</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>198.7211444351116</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>225.9178197698805</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27549,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>167.6907208367545</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>159.5576012871964</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>146.4208822927342</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>72.1309026321826</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>61.01948649335067</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>163.7926763921768</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>218.7839108905446</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>226.662666653727</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3026516189434</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>376.6774205741812</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>358.3968460292961</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>322.4266189770738</v>
+        <v>329.3026647187852</v>
       </c>
       <c r="I5" t="n">
-        <v>172.1835593375587</v>
+        <v>166.1271382482593</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27707,10 +27709,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>129.9360349928223</v>
+        <v>136.8120807345338</v>
       </c>
       <c r="H6" t="n">
-        <v>107.1028871490119</v>
+        <v>100.2268414073004</v>
       </c>
       <c r="I6" t="n">
         <v>71.09936984653133</v>
@@ -27740,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>67.16215834409098</v>
+        <v>60.28611260237955</v>
       </c>
       <c r="S6" t="n">
         <v>154.9359267856063</v>
       </c>
       <c r="T6" t="n">
-        <v>191.1466212076977</v>
+        <v>191.9662458601097</v>
       </c>
       <c r="U6" t="n">
         <v>225.9064191580356</v>
       </c>
       <c r="V6" t="n">
-        <v>226.7441660601258</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27795,7 +27797,7 @@
         <v>142.0519186400358</v>
       </c>
       <c r="J7" t="n">
-        <v>54.98356598145195</v>
+        <v>55.80319063386395</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>216.2520779636332</v>
       </c>
       <c r="T7" t="n">
-        <v>219.9855040539172</v>
+        <v>226.0419251432166</v>
       </c>
       <c r="U7" t="n">
         <v>286.2947272592347</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>279.6469525948796</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.1041176694955</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>340.5331064226018</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>367.7804348741806</v>
       </c>
       <c r="F8" t="n">
-        <v>392.637950836952</v>
+        <v>394.4127828192416</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>327.6620055505762</v>
+        <v>327.668665386239</v>
       </c>
       <c r="I8" t="n">
-        <v>166.0074077366916</v>
+        <v>166.0324782421858</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.41355028698837</v>
+        <v>77.45439939251328</v>
       </c>
       <c r="S8" t="n">
-        <v>182.7357681846303</v>
+        <v>182.7505867863798</v>
       </c>
       <c r="T8" t="n">
-        <v>218.0466107540131</v>
+        <v>218.0494574212279</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2533766988566</v>
+        <v>251.2534287224722</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>371.9998437512941</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>158.4704040835563</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27944,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7263656075155</v>
+        <v>136.726713546119</v>
       </c>
       <c r="H9" t="n">
-        <v>106.2750594749149</v>
+        <v>106.2784198293222</v>
       </c>
       <c r="I9" t="n">
-        <v>68.14821306103589</v>
+        <v>68.16019252611162</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>47.60220669341135</v>
+        <v>47.71196911443511</v>
       </c>
       <c r="S9" t="n">
-        <v>160.2198516373084</v>
+        <v>160.2263144442633</v>
       </c>
       <c r="T9" t="n">
-        <v>183.4390799317999</v>
+        <v>197.6785772732988</v>
       </c>
       <c r="U9" t="n">
-        <v>213.3598660128301</v>
+        <v>211.7508676975587</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>237.5450479628385</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>193.3097222810076</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>131.1829531181718</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.4735802256284</v>
+        <v>167.4738719256655</v>
       </c>
       <c r="H10" t="n">
-        <v>157.6270238537296</v>
+        <v>157.6296173322416</v>
       </c>
       <c r="I10" t="n">
-        <v>127.3499579223929</v>
+        <v>125.7497089320862</v>
       </c>
       <c r="J10" t="n">
-        <v>56.77906142556582</v>
+        <v>42.64974942011024</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.5988264151121</v>
+        <v>28.71141202217282</v>
       </c>
       <c r="R10" t="n">
-        <v>139.7911500089646</v>
+        <v>154.0423608081211</v>
       </c>
       <c r="S10" t="n">
-        <v>214.999742240283</v>
+        <v>202.5415628539149</v>
       </c>
       <c r="T10" t="n">
-        <v>225.7348840425518</v>
+        <v>225.7361303972559</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2908075856092</v>
+        <v>286.2908234965204</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.6693748679381994</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>6.855235366272087</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>25.80607459618746</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>56.81235519766981</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>85.1469933574938</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>105.6323744721575</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>117.5363697798534</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>119.4382311233829</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>112.7821347803224</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>96.25694272809808</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>72.28495527006129</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>42.04761904812296</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>15.25337980314174</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>2.93018848439947</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.05354998943505594</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.3581471286331605</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>3.458947268641313</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>12.33094280601013</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>33.83704955213557</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>57.83290717055733</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>77.76348071484479</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>90.74631412779684</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>93.14809903867449</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>85.21231266211866</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>68.39039336153746</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>45.71716680587502</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>22.23653839004834</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>6.65242583228699</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>1.443584259709975</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.02356231109428688</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.3002585217042458</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>2.669571220243205</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>9.029592634524048</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>21.22827748449018</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>34.88458097618419</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>44.64025330864761</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>47.06688808860282</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>45.94774268952339</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>42.44017723143287</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>36.31490338866622</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>25.14255675834371</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>13.50071498499272</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>5.232687146427628</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.282922774554504</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.01637773754750434</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.153452612248602</v>
+        <v>1.152802317053889</v>
       </c>
       <c r="H8" t="n">
-        <v>11.812796565191</v>
+        <v>11.80613672952814</v>
       </c>
       <c r="I8" t="n">
-        <v>44.46848183371427</v>
+        <v>44.44341132822009</v>
       </c>
       <c r="J8" t="n">
-        <v>97.89784864883487</v>
+        <v>97.84265565705257</v>
       </c>
       <c r="K8" t="n">
-        <v>146.7234977253182</v>
+        <v>146.6407777379437</v>
       </c>
       <c r="L8" t="n">
-        <v>182.0234731074214</v>
+        <v>181.9208516484817</v>
       </c>
       <c r="M8" t="n">
-        <v>202.5361860004975</v>
+        <v>202.4219998543888</v>
       </c>
       <c r="N8" t="n">
-        <v>205.8134332350488</v>
+        <v>205.6973994377182</v>
       </c>
       <c r="O8" t="n">
-        <v>194.3437888220018</v>
+        <v>194.2342213975136</v>
       </c>
       <c r="P8" t="n">
-        <v>165.8679274571144</v>
+        <v>165.7744141952456</v>
       </c>
       <c r="Q8" t="n">
-        <v>124.5599057809613</v>
+        <v>124.4896812157532</v>
       </c>
       <c r="R8" t="n">
-        <v>72.45556765416131</v>
+        <v>72.4147185486364</v>
       </c>
       <c r="S8" t="n">
-        <v>26.28430140161505</v>
+        <v>26.26948279986551</v>
       </c>
       <c r="T8" t="n">
-        <v>5.049238810118258</v>
+        <v>5.0463921429034</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09227620897988814</v>
+        <v>0.09222418536431108</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6171515556950897</v>
+        <v>0.6168036170916165</v>
       </c>
       <c r="H9" t="n">
-        <v>5.960384761581525</v>
+        <v>5.957024407174297</v>
       </c>
       <c r="I9" t="n">
-        <v>21.24841979037919</v>
+        <v>21.23644032530347</v>
       </c>
       <c r="J9" t="n">
-        <v>58.3072879878418</v>
+        <v>58.27441542004611</v>
       </c>
       <c r="K9" t="n">
-        <v>99.65644221941281</v>
+        <v>99.60025776518441</v>
       </c>
       <c r="L9" t="n">
-        <v>134.0003849328308</v>
+        <v>133.9248380005284</v>
       </c>
       <c r="M9" t="n">
-        <v>156.3721288267778</v>
+        <v>156.2839691200995</v>
       </c>
       <c r="N9" t="n">
-        <v>145.5798069880927</v>
+        <v>145.4916472814145</v>
       </c>
       <c r="O9" t="n">
-        <v>146.8360545692611</v>
+        <v>146.7532711244251</v>
       </c>
       <c r="P9" t="n">
-        <v>117.8488790870738</v>
+        <v>117.7824380742754</v>
       </c>
       <c r="Q9" t="n">
-        <v>78.77885472346445</v>
+        <v>78.73444066594038</v>
       </c>
       <c r="R9" t="n">
-        <v>38.31753255447234</v>
+        <v>38.29592984012687</v>
       </c>
       <c r="S9" t="n">
-        <v>11.4633194665294</v>
+        <v>11.45685665957454</v>
       </c>
       <c r="T9" t="n">
-        <v>2.487553858262225</v>
+        <v>2.486151421522786</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04060207603257171</v>
+        <v>0.04057918533497479</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5173991328303671</v>
+        <v>0.5171074327932303</v>
       </c>
       <c r="H10" t="n">
-        <v>4.600148653709994</v>
+        <v>4.597555175197996</v>
       </c>
       <c r="I10" t="n">
-        <v>15.55960301275323</v>
+        <v>15.55083079709097</v>
       </c>
       <c r="J10" t="n">
-        <v>36.58011869110695</v>
+        <v>36.55949549848138</v>
       </c>
       <c r="K10" t="n">
-        <v>60.11237197792809</v>
+        <v>60.07848173724984</v>
       </c>
       <c r="L10" t="n">
-        <v>76.92314016643478</v>
+        <v>76.8797723263681</v>
       </c>
       <c r="M10" t="n">
-        <v>81.10466588540017</v>
+        <v>81.05894057866972</v>
       </c>
       <c r="N10" t="n">
-        <v>79.17617820848704</v>
+        <v>79.13154014734957</v>
       </c>
       <c r="O10" t="n">
-        <v>73.13201561133228</v>
+        <v>73.09078513699225</v>
       </c>
       <c r="P10" t="n">
-        <v>62.57707330159274</v>
+        <v>62.54179350801031</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.32512193182284</v>
+        <v>43.30069603144041</v>
       </c>
       <c r="R10" t="n">
-        <v>23.26414646344541</v>
+        <v>23.25103056904833</v>
       </c>
       <c r="S10" t="n">
-        <v>9.016855796689212</v>
+        <v>9.011772260587474</v>
       </c>
       <c r="T10" t="n">
-        <v>2.21070538572975</v>
+        <v>2.20945903102562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02822177088165642</v>
+        <v>0.02820585997053987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32561,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32798,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33035,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33989,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.994981974642</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>6.598225711743296</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34954,7 +34956,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="K6" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M7" t="n">
         <v>6.876045741711437</v>
@@ -35106,10 +35108,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>13.66281834295099</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>14.23809490475945</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="N8" t="n">
-        <v>14.23809490475945</v>
+        <v>13.57822064462333</v>
       </c>
       <c r="O8" t="n">
-        <v>14.23809490475945</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>13.66281834295099</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>14.23809490475945</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="N9" t="n">
-        <v>14.23809490475945</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="O9" t="n">
-        <v>14.23809490475945</v>
+        <v>4.157026679980646</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.421193964642681</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>14.23809490475945</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="M10" t="n">
-        <v>14.23809490475945</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="N10" t="n">
-        <v>14.23809490475945</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="O10" t="n">
-        <v>13.66281834295099</v>
+        <v>13.57822064462333</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36209,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36361,16 +36363,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36446,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36595,10 +36597,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,10 +36609,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36683,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36832,10 +36834,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,10 +36846,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -37072,16 +37074,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37637,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193724</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_14_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1787662.007514036</v>
+        <v>1765975.46260514</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12033284.58672667</v>
+        <v>12033284.58672666</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4177186.784547884</v>
+        <v>4177186.784547881</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8869933.99006233</v>
+        <v>8869933.990062332</v>
       </c>
     </row>
     <row r="11">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,37 +916,37 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="S5" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -992,11 +992,11 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S6" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="T6" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.46326292246987</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>14.14993519808115</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.587217180758437</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>14.14993519808115</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>12.46326292246987</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>12.46326292246987</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>14.14993519808115</v>
+        <v>12.46326292246987</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>12.46326292246987</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>83.91763484385194</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>170.7412391063473</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>31.60252512031638</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>330.7598727037317</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>4.677244068741606</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.36860283745274</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>60.42074284196992</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>103.6446362310496</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>78.47556194058353</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>163.6898441249717</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>148.5873298926978</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>229.7965692041371</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680985</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>114.4746605491561</v>
+        <v>203.4068132192036</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>14.31259208839388</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>112.5583888469059</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249717</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>71.31461021972551</v>
+        <v>78.37892431361304</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
-        <v>6.380068175848154</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>67.72502952809118</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>208.5804814250763</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>105.0023863360933</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>217.2124074028624</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>204.1149264341229</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>293.3722074139853</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>50.44782887801009</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>67.41386939711249</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>276.7320215053134</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>126.9921629678194</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>197.4995743803894</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>284.7781523974834</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>205.1127822067381</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.5705851936315</v>
+        <v>202.4425172951288</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>252.3474771205404</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>64.98987853065989</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>72.89138480951671</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>40.61077471343791</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3982,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>159.22828385002</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>147.5395905665098</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>74.75769145492379</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F5" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G5" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H5" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I5" t="n">
         <v>0.5500836593369149</v>
@@ -4570,49 +4570,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="M5" t="n">
         <v>7.082327113962777</v>
-      </c>
-      <c r="L5" t="n">
-        <v>13.8896123982571</v>
-      </c>
-      <c r="M5" t="n">
-        <v>13.8896123982571</v>
       </c>
       <c r="N5" t="n">
         <v>13.8896123982571</v>
       </c>
       <c r="O5" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P5" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C6" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D6" t="n">
         <v>7.495584408540386</v>
@@ -4640,58 +4640,58 @@
         <v>7.495584408540386</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I6" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M6" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="O6" t="n">
         <v>13.8896123982571</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="O6" t="n">
-        <v>20.69689768255142</v>
-      </c>
-      <c r="P6" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="Q6" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S6" t="n">
-        <v>13.6131814684388</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T6" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U6" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V6" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W6" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X6" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.667680719235332</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C7" t="n">
-        <v>6.667680719235332</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D7" t="n">
-        <v>6.667680719235332</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E7" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F7" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G7" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H7" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I7" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J7" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L7" t="n">
         <v>7.357368943631237</v>
       </c>
       <c r="M7" t="n">
-        <v>14.16465422792556</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N7" t="n">
-        <v>20.97193951221988</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O7" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
@@ -4764,13 +4764,13 @@
         <v>20.55868221764227</v>
       </c>
       <c r="W7" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X7" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.667680719235332</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.59974079232461</v>
+        <v>22.37035940149557</v>
       </c>
       <c r="C8" t="n">
-        <v>56.59974079232461</v>
+        <v>22.37035940149557</v>
       </c>
       <c r="D8" t="n">
-        <v>42.306876955879</v>
+        <v>22.37035940149557</v>
       </c>
       <c r="E8" t="n">
-        <v>28.01401311943339</v>
+        <v>22.37035940149557</v>
       </c>
       <c r="F8" t="n">
         <v>15.4248586522921</v>
@@ -4804,22 +4804,22 @@
         <v>1.131994815846492</v>
       </c>
       <c r="J8" t="n">
-        <v>15.14043066194683</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="K8" t="n">
         <v>15.14043066194683</v>
       </c>
       <c r="L8" t="n">
-        <v>15.14043066194683</v>
+        <v>29.14886650804717</v>
       </c>
       <c r="M8" t="n">
-        <v>29.14886650804717</v>
+        <v>42.59130494622427</v>
       </c>
       <c r="N8" t="n">
         <v>42.59130494622427</v>
       </c>
       <c r="O8" t="n">
-        <v>56.59974079232461</v>
+        <v>42.59130494622427</v>
       </c>
       <c r="P8" t="n">
         <v>56.59974079232461</v>
@@ -4828,28 +4828,28 @@
         <v>56.59974079232461</v>
       </c>
       <c r="R8" t="n">
-        <v>56.59974079232461</v>
+        <v>50.95608707438679</v>
       </c>
       <c r="S8" t="n">
-        <v>56.59974079232461</v>
+        <v>36.66322323794118</v>
       </c>
       <c r="T8" t="n">
-        <v>56.59974079232461</v>
+        <v>36.66322323794118</v>
       </c>
       <c r="U8" t="n">
-        <v>56.59974079232461</v>
+        <v>36.66322323794118</v>
       </c>
       <c r="V8" t="n">
-        <v>56.59974079232461</v>
+        <v>22.37035940149557</v>
       </c>
       <c r="W8" t="n">
-        <v>56.59974079232461</v>
+        <v>22.37035940149557</v>
       </c>
       <c r="X8" t="n">
-        <v>56.59974079232461</v>
+        <v>22.37035940149557</v>
       </c>
       <c r="Y8" t="n">
-        <v>56.59974079232461</v>
+        <v>22.37035940149557</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.131994815846492</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="C9" t="n">
-        <v>1.131994815846492</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="D9" t="n">
-        <v>1.131994815846492</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="E9" t="n">
-        <v>1.131994815846492</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="F9" t="n">
-        <v>1.131994815846492</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="G9" t="n">
         <v>1.131994815846492</v>
@@ -4886,19 +4886,19 @@
         <v>1.131994815846492</v>
       </c>
       <c r="K9" t="n">
-        <v>15.14043066194683</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="L9" t="n">
-        <v>15.14043066194683</v>
+        <v>14.57443325402359</v>
       </c>
       <c r="M9" t="n">
-        <v>29.14886650804717</v>
+        <v>28.58286910012393</v>
       </c>
       <c r="N9" t="n">
-        <v>43.15730235414752</v>
+        <v>42.59130494622427</v>
       </c>
       <c r="O9" t="n">
-        <v>47.27275876732836</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="P9" t="n">
         <v>56.59974079232461</v>
@@ -4910,25 +4910,25 @@
         <v>42.306876955879</v>
       </c>
       <c r="S9" t="n">
-        <v>42.306876955879</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="T9" t="n">
-        <v>42.306876955879</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="U9" t="n">
-        <v>28.01401311943339</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="V9" t="n">
-        <v>28.01401311943339</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="W9" t="n">
-        <v>13.72114928298778</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="X9" t="n">
-        <v>1.131994815846492</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.131994815846492</v>
+        <v>29.71772248873771</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.71772248873771</v>
+        <v>28.01401311943339</v>
       </c>
       <c r="C10" t="n">
-        <v>29.71772248873771</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="D10" t="n">
-        <v>29.71772248873771</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="E10" t="n">
-        <v>29.71772248873771</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="F10" t="n">
-        <v>29.71772248873771</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="G10" t="n">
-        <v>29.71772248873771</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="H10" t="n">
-        <v>29.71772248873771</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="I10" t="n">
-        <v>15.4248586522921</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="J10" t="n">
         <v>1.131994815846492</v>
@@ -4974,7 +4974,7 @@
         <v>29.14886650804717</v>
       </c>
       <c r="N10" t="n">
-        <v>43.15730235414752</v>
+        <v>42.59130494622427</v>
       </c>
       <c r="O10" t="n">
         <v>56.59974079232461</v>
@@ -4989,25 +4989,25 @@
         <v>42.306876955879</v>
       </c>
       <c r="S10" t="n">
-        <v>29.71772248873771</v>
+        <v>42.306876955879</v>
       </c>
       <c r="T10" t="n">
-        <v>29.71772248873771</v>
+        <v>42.306876955879</v>
       </c>
       <c r="U10" t="n">
-        <v>29.71772248873771</v>
+        <v>42.306876955879</v>
       </c>
       <c r="V10" t="n">
-        <v>29.71772248873771</v>
+        <v>42.306876955879</v>
       </c>
       <c r="W10" t="n">
-        <v>29.71772248873771</v>
+        <v>42.306876955879</v>
       </c>
       <c r="X10" t="n">
-        <v>29.71772248873771</v>
+        <v>28.01401311943339</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.71772248873771</v>
+        <v>28.01401311943339</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1363.124011696101</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C11" t="n">
-        <v>1363.124011696101</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>654.0504646744064</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>654.0504646744064</v>
       </c>
       <c r="F11" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5050,43 +5050,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V11" t="n">
-        <v>2866.097597267229</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W11" t="n">
-        <v>2513.328941997115</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X11" t="n">
-        <v>2139.863183736035</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y11" t="n">
-        <v>1749.723851760223</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>492.7661230698583</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>492.7661230698583</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>342.6494836575225</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>902.4041387981154</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>674.414587900098</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>674.414587900098</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1617.939223126803</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C14" t="n">
-        <v>1617.939223126803</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F14" t="n">
         <v>821.1650657389509</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810558</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5302,10 +5302,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
         <v>3009.337405520489</v>
@@ -5317,13 +5317,13 @@
         <v>2678.274518176918</v>
       </c>
       <c r="W14" t="n">
-        <v>2325.505862906803</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X14" t="n">
-        <v>1952.040104645724</v>
+        <v>2320.781373948479</v>
       </c>
       <c r="Y14" t="n">
-        <v>1952.040104645724</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
@@ -5360,19 +5360,19 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>922.6774975139006</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5439,16 +5439,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1876.417171485005</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1876.417171485005</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1876.417171485005</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1876.417171485005</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V16" t="n">
-        <v>1621.732683279118</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W16" t="n">
-        <v>1332.315513242158</v>
+        <v>1161.426274415172</v>
       </c>
       <c r="X16" t="n">
-        <v>1104.32596234414</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="Y16" t="n">
-        <v>1104.32596234414</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1133.347320219774</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C17" t="n">
-        <v>1133.347320219774</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>775.0816216130238</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>775.0816216130238</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5515,10 +5515,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5530,7 +5530,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
@@ -5539,28 +5539,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3220.914269860637</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>2967.383793134473</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>2636.320905790902</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="W17" t="n">
-        <v>2283.552250520788</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X17" t="n">
-        <v>1910.086492259708</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y17" t="n">
-        <v>1519.947160283896</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="18">
@@ -5585,10 +5585,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5597,22 +5597,22 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218343</v>
@@ -5676,16 +5676,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W19" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X19" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.7293032143257</v>
+        <v>231.8553933260943</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1822.632236038043</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C20" t="n">
-        <v>1453.669719097631</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>1095.404020490881</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6157678926365</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>298.629863103029</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5761,7 +5761,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5770,34 +5770,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339056</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077976</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102165</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193525</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T22" t="n">
-        <v>2928.458509941852</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U22" t="n">
-        <v>2639.355643067495</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V22" t="n">
-        <v>2384.671154861609</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W22" t="n">
-        <v>2095.253984824648</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X22" t="n">
-        <v>1867.264433926631</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y22" t="n">
-        <v>1646.471854783101</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1477.112184968822</v>
+        <v>1477.112184968823</v>
       </c>
       <c r="C23" t="n">
         <v>1108.149668028411</v>
       </c>
       <c r="D23" t="n">
-        <v>749.8839694216604</v>
+        <v>749.8839694216605</v>
       </c>
       <c r="E23" t="n">
         <v>364.0957168234162</v>
@@ -5983,49 +5983,49 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U23" t="n">
-        <v>3311.148657883521</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V23" t="n">
-        <v>2980.08577053995</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W23" t="n">
         <v>2627.317115269836</v>
@@ -6065,16 +6065,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C25" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D25" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O25" t="n">
         <v>1617.076751502319</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U25" t="n">
-        <v>1854.900232967364</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1600.215744761477</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W25" t="n">
-        <v>1310.798574724517</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X25" t="n">
-        <v>1082.809023826499</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y25" t="n">
-        <v>862.0164446829692</v>
+        <v>231.8553933260943</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1236.335336125843</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C26" t="n">
-        <v>867.3728191854311</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D26" t="n">
-        <v>867.3728191854311</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E26" t="n">
-        <v>481.5845665871869</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6244,10 +6244,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180639</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943747</v>
+        <v>2382.341170533245</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6311,40 +6311,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U27" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X27" t="n">
         <v>1317.519490266131</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>235.4482993600903</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O28" t="n">
         <v>1617.076751502319</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1920.850034779555</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T28" t="n">
-        <v>1699.083419349081</v>
+        <v>1577.369085937402</v>
       </c>
       <c r="U28" t="n">
-        <v>1409.980552474725</v>
+        <v>1288.266219063046</v>
       </c>
       <c r="V28" t="n">
-        <v>1155.296064268838</v>
+        <v>1033.581730857159</v>
       </c>
       <c r="W28" t="n">
-        <v>865.8788942318776</v>
+        <v>1033.581730857159</v>
       </c>
       <c r="X28" t="n">
-        <v>637.8893433338602</v>
+        <v>805.5921799591413</v>
       </c>
       <c r="Y28" t="n">
-        <v>417.0967641903301</v>
+        <v>584.7996008156111</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1179.52858457759</v>
+        <v>2144.895377947847</v>
       </c>
       <c r="C29" t="n">
-        <v>810.5660676371781</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D29" t="n">
-        <v>452.3003690304276</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E29" t="n">
-        <v>66.51211643218342</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>66.51211643218342</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218342</v>
@@ -6496,19 +6496,19 @@
         <v>3119.628073993393</v>
       </c>
       <c r="U29" t="n">
-        <v>3013.565057492288</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>2682.502170148718</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W29" t="n">
-        <v>2329.733514878603</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X29" t="n">
-        <v>1956.267756617523</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="Y29" t="n">
-        <v>1566.128424641711</v>
+        <v>2144.895377947847</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218342</v>
@@ -6548,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.8377936138381</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C31" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D31" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E31" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F31" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H31" t="n">
         <v>163.8377936138381</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1707.888075964389</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1418.785209090033</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621296</v>
+        <v>1164.100720884146</v>
       </c>
       <c r="W31" t="n">
-        <v>590.8070661251691</v>
+        <v>874.6835508471855</v>
       </c>
       <c r="X31" t="n">
-        <v>384.6303727573681</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.8377936138381</v>
+        <v>646.6939999491682</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1477.112184968822</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C32" t="n">
-        <v>1108.149668028411</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D32" t="n">
-        <v>749.8839694216604</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E32" t="n">
-        <v>364.0957168234162</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
         <v>66.51211643218342</v>
@@ -6700,7 +6700,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
@@ -6709,7 +6709,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2958.380002613407</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V32" t="n">
-        <v>2627.317115269836</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2627.317115269836</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X32" t="n">
-        <v>2253.851357008756</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y32" t="n">
-        <v>1863.712025032944</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
@@ -6785,7 +6785,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>471.2459535582122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C34" t="n">
-        <v>302.3097706303054</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D34" t="n">
-        <v>302.3097706303054</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>302.3097706303054</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>302.3097706303054</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>134.6069340050243</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
         <v>66.51211643218342</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T34" t="n">
-        <v>1645.778206672847</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U34" t="n">
-        <v>1645.778206672847</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V34" t="n">
-        <v>1391.09371846696</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W34" t="n">
-        <v>1101.676548429999</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X34" t="n">
-        <v>873.6869975319821</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y34" t="n">
-        <v>652.894418388452</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1917.382287315189</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C35" t="n">
-        <v>1548.419770374778</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D35" t="n">
-        <v>1190.154071768027</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E35" t="n">
         <v>1190.154071768027</v>
@@ -6931,34 +6931,34 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>2991.353161904686</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2660.290274561115</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2307.521619291001</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X35" t="n">
-        <v>2307.521619291001</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="Y35" t="n">
-        <v>1917.382287315189</v>
+        <v>2582.697834363245</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031477</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7125,22 +7125,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1727.800028512342</v>
       </c>
       <c r="U37" t="n">
-        <v>1927.294548088493</v>
+        <v>1727.800028512342</v>
       </c>
       <c r="V37" t="n">
-        <v>1927.294548088493</v>
+        <v>1473.115540306455</v>
       </c>
       <c r="W37" t="n">
-        <v>1722.044275313594</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="X37" t="n">
-        <v>1494.054724415577</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.262145272047</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1878.169188758595</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>1509.206671818183</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>1150.940973211433</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>765.1527206131884</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>354.1668158235809</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
         <v>66.51211643218343</v>
@@ -7174,10 +7174,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7192,10 +7192,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7210,16 +7210,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.542934265601</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.774278995486</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.308520734407</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.169188758595</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2489.924953962486</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C40" t="n">
-        <v>2320.988771034579</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D40" t="n">
-        <v>2170.872131622243</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.95903803985</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>1876.06909054194</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>1708.366253916659</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>3036.502954734815</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>3036.502954734815</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>3036.502954734815</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X40" t="n">
-        <v>2808.513403836798</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y40" t="n">
-        <v>2671.573418792726</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1845.410930903097</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C41" t="n">
-        <v>1476.448413962685</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D41" t="n">
-        <v>1118.182715355935</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E41" t="n">
-        <v>732.3944627576905</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F41" t="n">
-        <v>321.4085579680829</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G41" t="n">
-        <v>321.4085579680829</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W41" t="n">
-        <v>2609.016021139988</v>
+        <v>2690.160586844163</v>
       </c>
       <c r="X41" t="n">
-        <v>2235.550262878909</v>
+        <v>2316.694828583083</v>
       </c>
       <c r="Y41" t="n">
-        <v>1845.410930903097</v>
+        <v>2316.694828583083</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>457.9680739783734</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C43" t="n">
-        <v>457.9680739783734</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>457.9680739783734</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046018</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676413</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X43" t="n">
-        <v>639.6165388086131</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y43" t="n">
-        <v>639.6165388086131</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1232.248790760447</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C44" t="n">
-        <v>863.2862738200351</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218343</v>
+        <v>684.4181157012738</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>269.3456655462703</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7666,34 +7666,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3066.285263675145</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2735.222376331575</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2382.45372106146</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X44" t="n">
-        <v>2008.98796280038</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y44" t="n">
-        <v>1618.848630824569</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="45">
@@ -7718,16 +7718,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>142.0249360836216</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C46" t="n">
-        <v>142.0249360836216</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D46" t="n">
-        <v>142.0249360836216</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>142.0249360836216</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V46" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W46" t="n">
-        <v>590.8070661251691</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X46" t="n">
-        <v>362.8175152271517</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y46" t="n">
-        <v>142.0249360836216</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>124.2335493290165</v>
+        <v>124.2335493290174</v>
       </c>
       <c r="K2" t="n">
-        <v>134.9428576874868</v>
+        <v>134.9428576874881</v>
       </c>
       <c r="L2" t="n">
-        <v>130.1340404978297</v>
+        <v>130.1340404978314</v>
       </c>
       <c r="M2" t="n">
-        <v>112.8098634474193</v>
+        <v>112.8098634474211</v>
       </c>
       <c r="N2" t="n">
-        <v>109.9748324732081</v>
+        <v>109.9748324732099</v>
       </c>
       <c r="O2" t="n">
-        <v>117.3160766413643</v>
+        <v>117.3160766413661</v>
       </c>
       <c r="P2" t="n">
-        <v>134.9760530271715</v>
+        <v>134.976053027173</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.0207346043882</v>
+        <v>150.0207346043893</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>93.00057711453113</v>
+        <v>93.00057711453164</v>
       </c>
       <c r="K3" t="n">
-        <v>80.00853180380167</v>
+        <v>80.00853180380257</v>
       </c>
       <c r="L3" t="n">
-        <v>60.79089906502939</v>
+        <v>60.7908990650306</v>
       </c>
       <c r="M3" t="n">
-        <v>51.38771979422148</v>
+        <v>51.3877197942229</v>
       </c>
       <c r="N3" t="n">
-        <v>38.19361304465882</v>
+        <v>38.19361304466027</v>
       </c>
       <c r="O3" t="n">
-        <v>57.38393178232577</v>
+        <v>57.3839317823271</v>
       </c>
       <c r="P3" t="n">
-        <v>65.58401405279278</v>
+        <v>65.58401405279385</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.26460728014649</v>
+        <v>94.2646072801472</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>94.12867719435118</v>
+        <v>94.12867719435174</v>
       </c>
       <c r="L4" t="n">
-        <v>90.24442297259068</v>
+        <v>90.24442297259137</v>
       </c>
       <c r="M4" t="n">
-        <v>91.85889585900225</v>
+        <v>91.85889585900297</v>
       </c>
       <c r="N4" t="n">
-        <v>81.7378017757098</v>
+        <v>81.73780177571052</v>
       </c>
       <c r="O4" t="n">
-        <v>96.01636122040992</v>
+        <v>96.01636122041057</v>
       </c>
       <c r="P4" t="n">
-        <v>101.4131006604814</v>
+        <v>101.4131006604819</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8218,25 +8218,25 @@
         <v>96.74492111185943</v>
       </c>
       <c r="K5" t="n">
-        <v>100.3427553934781</v>
+        <v>93.74452968173479</v>
       </c>
       <c r="L5" t="n">
-        <v>85.89991734304479</v>
+        <v>79.02387160133335</v>
       </c>
       <c r="M5" t="n">
-        <v>55.93995267482026</v>
+        <v>62.53817838656356</v>
       </c>
       <c r="N5" t="n">
-        <v>52.18470708864717</v>
+        <v>59.06075283035861</v>
       </c>
       <c r="O5" t="n">
-        <v>62.74649997574608</v>
+        <v>69.62254571745751</v>
       </c>
       <c r="P5" t="n">
         <v>95.27822759655393</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.9217427121372</v>
+        <v>115.0456969704258</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>83.22676417609141</v>
+        <v>76.62853846434811</v>
       </c>
       <c r="K6" t="n">
         <v>52.02611005068958</v>
@@ -8303,19 +8303,19 @@
         <v>23.16507977264236</v>
       </c>
       <c r="M6" t="n">
-        <v>14.35620911696111</v>
+        <v>7.480163375249674</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>16.15399906534526</v>
+        <v>22.75222477708854</v>
       </c>
       <c r="P6" t="n">
         <v>39.36940389405079</v>
       </c>
       <c r="Q6" t="n">
-        <v>72.14438013772387</v>
+        <v>79.02042587943531</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>77.24979101494196</v>
+        <v>84.1258367566534</v>
       </c>
       <c r="L7" t="n">
-        <v>75.52130560177798</v>
+        <v>68.64525986006655</v>
       </c>
       <c r="M7" t="n">
-        <v>75.96165252469231</v>
+        <v>69.08560678298088</v>
       </c>
       <c r="N7" t="n">
-        <v>66.38205635482377</v>
+        <v>66.10423632485562</v>
       </c>
       <c r="O7" t="n">
-        <v>75.48170376208013</v>
+        <v>82.35774950379157</v>
       </c>
       <c r="P7" t="n">
-        <v>90.44037944492732</v>
+        <v>90.71819947489547</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>97.35318406771486</v>
+        <v>83.20324886963371</v>
       </c>
       <c r="K8" t="n">
-        <v>73.44907330703683</v>
+        <v>87.59900850511798</v>
       </c>
       <c r="L8" t="n">
-        <v>53.84556332150555</v>
+        <v>67.9954985195867</v>
       </c>
       <c r="M8" t="n">
-        <v>42.0741685709651</v>
+        <v>41.50245401750728</v>
       </c>
       <c r="N8" t="n">
-        <v>37.29388480349608</v>
+        <v>23.71566415887276</v>
       </c>
       <c r="O8" t="n">
-        <v>50.01392522225433</v>
+        <v>35.86399002417318</v>
       </c>
       <c r="P8" t="n">
-        <v>65.4585815600239</v>
+        <v>79.60851675810505</v>
       </c>
       <c r="Q8" t="n">
         <v>97.81600865869628</v>
@@ -8534,10 +8534,10 @@
         <v>68.56321124662058</v>
       </c>
       <c r="K9" t="n">
-        <v>52.39111640725574</v>
+        <v>38.24118120917458</v>
       </c>
       <c r="L9" t="n">
-        <v>4.629541779345772</v>
+        <v>18.2077624239691</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>9.992908518100506</v>
       </c>
       <c r="P9" t="n">
-        <v>25.61316330469748</v>
+        <v>16.1919693400548</v>
       </c>
       <c r="Q9" t="n">
         <v>61.24733342008113</v>
@@ -8622,10 +8622,10 @@
         <v>72.01677856701649</v>
       </c>
       <c r="N10" t="n">
-        <v>62.70393951596478</v>
+        <v>62.13222496250695</v>
       </c>
       <c r="O10" t="n">
-        <v>78.94397395947387</v>
+        <v>79.51568851293169</v>
       </c>
       <c r="P10" t="n">
         <v>75.18621054113731</v>
@@ -22561,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.63336264719685</v>
+        <v>14.63336264719686</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>270.765406776831</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>236.1348066353642</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>114.8314375262528</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>51.9739689597489</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>365.0538566097274</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.56354983259459</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>165.2889125470672</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>100.2733339085705</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>249.2766965295514</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696557</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23907,7 +23907,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.99732345939699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>181.1251564493145</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>105.0742887270131</v>
+        <v>16.14213605696563</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>236.6825798705081</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>236.6825798705071</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>16.14213605696557</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>311.4192314437551</v>
+        <v>304.3549173498675</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.3889571555937</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>151.823919748078</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>156.6924103459313</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>145.9927856228087</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2.336541873306828</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>21.59472895491427</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>71.90068435702227</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>200.5473430808919</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>77.34114551720829</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>106.0018201581672</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>124.0030089910825</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>22.04937489577983</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>126.14357325597</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25450,7 +25450,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>83.01406815846326</v>
+        <v>16.14213605696602</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>42.26028726678001</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>284.2510901867531</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>185.0988806755992</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>135.3794805373005</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>103.4555813923922</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>70.66335656800746</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>94.35543628911083</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>904733.6654692908</v>
+        <v>904733.6654692913</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>724633.1233491059</v>
+        <v>724633.1233491061</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>724633.1233491061</v>
+        <v>724633.1233491062</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>724633.1233491061</v>
+        <v>724633.1233491062</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>724633.1233491059</v>
+        <v>724633.1233491061</v>
       </c>
     </row>
     <row r="11">
@@ -26319,10 +26319,10 @@
         <v>574315.0476155346</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
-        <v>477395.938559289</v>
+        <v>477395.9385592891</v>
       </c>
       <c r="F2" t="n">
         <v>477395.938559289</v>
@@ -26334,7 +26334,7 @@
         <v>477395.9385592889</v>
       </c>
       <c r="I2" t="n">
-        <v>477395.938559289</v>
+        <v>477395.9385592891</v>
       </c>
       <c r="J2" t="n">
         <v>477395.9385592889</v>
@@ -26349,13 +26349,13 @@
         <v>477395.9385592889</v>
       </c>
       <c r="N2" t="n">
-        <v>477395.938559289</v>
+        <v>477395.9385592887</v>
       </c>
       <c r="O2" t="n">
         <v>477395.938559289</v>
       </c>
       <c r="P2" t="n">
-        <v>477395.9385592889</v>
+        <v>477395.9385592891</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160448.30824886</v>
+        <v>160448.3082488575</v>
       </c>
       <c r="C3" t="n">
-        <v>75583.48310873944</v>
+        <v>75583.48310874178</v>
       </c>
       <c r="D3" t="n">
         <v>36249.06486821849</v>
       </c>
       <c r="E3" t="n">
-        <v>889159.6910541893</v>
+        <v>889159.6910541897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1769.674140452789</v>
+        <v>1769.67414045273</v>
       </c>
       <c r="L3" t="n">
         <v>1840.955956402068</v>
       </c>
       <c r="M3" t="n">
-        <v>203662.3478409703</v>
+        <v>203662.3478409705</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381550.6998587567</v>
+        <v>381550.6998587573</v>
       </c>
       <c r="C4" t="n">
-        <v>362927.8785931707</v>
+        <v>362927.8785931708</v>
       </c>
       <c r="D4" t="n">
         <v>353530.8414321567</v>
       </c>
       <c r="E4" t="n">
-        <v>9160.459137079168</v>
+        <v>9160.459137079155</v>
       </c>
       <c r="F4" t="n">
         <v>9160.459137079168</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37257.45256511187</v>
+        <v>37257.45256511182</v>
       </c>
       <c r="C5" t="n">
         <v>39431.8184029668</v>
@@ -26478,22 +26478,22 @@
         <v>40739.27482484731</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5725.726003160249</v>
+        <v>-5768.529725852198</v>
       </c>
       <c r="C6" t="n">
-        <v>96371.86751065767</v>
+        <v>96357.07496460294</v>
       </c>
       <c r="D6" t="n">
-        <v>144210.0577797757</v>
+        <v>144210.0577797756</v>
       </c>
       <c r="E6" t="n">
-        <v>-495230.5521933728</v>
+        <v>-498706.741491434</v>
       </c>
       <c r="F6" t="n">
-        <v>393929.1388608165</v>
+        <v>390452.9495627554</v>
       </c>
       <c r="G6" t="n">
-        <v>393929.1388608164</v>
+        <v>390452.9495627554</v>
       </c>
       <c r="H6" t="n">
-        <v>393929.1388608164</v>
+        <v>390452.9495627553</v>
       </c>
       <c r="I6" t="n">
-        <v>393929.1388608165</v>
+        <v>390452.9495627555</v>
       </c>
       <c r="J6" t="n">
-        <v>393929.1388608164</v>
+        <v>390452.9495627554</v>
       </c>
       <c r="K6" t="n">
-        <v>392159.4647203636</v>
+        <v>388683.2754223026</v>
       </c>
       <c r="L6" t="n">
-        <v>392088.1829044143</v>
+        <v>388611.9936063532</v>
       </c>
       <c r="M6" t="n">
-        <v>190266.7910198461</v>
+        <v>186790.6017217849</v>
       </c>
       <c r="N6" t="n">
-        <v>393929.1388608165</v>
+        <v>390452.9495627552</v>
       </c>
       <c r="O6" t="n">
-        <v>393929.1388608165</v>
+        <v>390452.9495627555</v>
       </c>
       <c r="P6" t="n">
-        <v>393929.1388608164</v>
+        <v>390452.9495627556</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5069983996272</v>
+        <v>166.5069983996246</v>
       </c>
       <c r="C3" t="n">
         <v>247.0713221041627</v>
@@ -26746,22 +26746,22 @@
         <v>286.759576367155</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26798,22 +26798,22 @@
         <v>14.14993519808115</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022926</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5069983996272</v>
+        <v>166.5069983996246</v>
       </c>
       <c r="C3" t="n">
-        <v>80.56432370453541</v>
+        <v>80.56432370453798</v>
       </c>
       <c r="D3" t="n">
         <v>39.68825426299239</v>
       </c>
       <c r="E3" t="n">
-        <v>803.0171242261433</v>
+        <v>803.0171242261436</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>7.273889456369716</v>
       </c>
       <c r="E4" t="n">
-        <v>817.2515202042115</v>
+        <v>817.2515202042118</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711209</v>
       </c>
       <c r="L4" t="n">
         <v>7.273889456369716</v>
       </c>
       <c r="M4" t="n">
-        <v>817.2515202042115</v>
+        <v>817.2515202042121</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>7.273889456369716</v>
       </c>
       <c r="M4" t="n">
-        <v>817.2515202042115</v>
+        <v>817.2515202042118</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>332.619566749495</v>
+        <v>332.6195667494952</v>
       </c>
       <c r="I2" t="n">
-        <v>184.6698149742185</v>
+        <v>184.6698149742189</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>107.8214988930267</v>
+        <v>107.8214988930274</v>
       </c>
       <c r="S2" t="n">
-        <v>193.7666897831036</v>
+        <v>193.7666897831039</v>
       </c>
       <c r="T2" t="n">
         <v>220.1656610797319</v>
@@ -27478,7 +27478,7 @@
         <v>108.7764969678552</v>
       </c>
       <c r="I3" t="n">
-        <v>77.06569004540495</v>
+        <v>77.06569004540513</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.9212957625948</v>
+        <v>77.92129576259514</v>
       </c>
       <c r="S3" t="n">
-        <v>165.0307452715508</v>
+        <v>165.0307452715509</v>
       </c>
       <c r="T3" t="n">
-        <v>198.7211444351116</v>
+        <v>198.7211444351117</v>
       </c>
       <c r="U3" t="n">
         <v>225.9178197698805</v>
@@ -27557,10 +27557,10 @@
         <v>159.5576012871964</v>
       </c>
       <c r="I4" t="n">
-        <v>146.4208822927342</v>
+        <v>146.4208822927344</v>
       </c>
       <c r="J4" t="n">
-        <v>72.1309026321826</v>
+        <v>72.13090263218292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.01948649335067</v>
+        <v>61.01948649335107</v>
       </c>
       <c r="R4" t="n">
-        <v>163.7926763921768</v>
+        <v>163.792676392177</v>
       </c>
       <c r="S4" t="n">
-        <v>218.7839108905446</v>
+        <v>218.7839108905447</v>
       </c>
       <c r="T4" t="n">
         <v>226.662666653727</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>358.3968460292961</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27636,7 +27636,7 @@
         <v>329.3026647187852</v>
       </c>
       <c r="I5" t="n">
-        <v>166.1271382482593</v>
+        <v>172.1835593375587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>87.47678050546884</v>
+        <v>80.6007347637574</v>
       </c>
       <c r="S5" t="n">
-        <v>186.3863499784117</v>
+        <v>180.3299288891123</v>
       </c>
       <c r="T5" t="n">
         <v>218.7478909208712</v>
@@ -27700,7 +27700,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27712,10 +27712,10 @@
         <v>136.8120807345338</v>
       </c>
       <c r="H6" t="n">
-        <v>100.2268414073004</v>
+        <v>107.1028871490119</v>
       </c>
       <c r="I6" t="n">
-        <v>71.09936984653133</v>
+        <v>64.22332410481989</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>60.28611260237955</v>
+        <v>61.10573725479155</v>
       </c>
       <c r="S6" t="n">
-        <v>154.9359267856063</v>
+        <v>161.8119725273177</v>
       </c>
       <c r="T6" t="n">
-        <v>191.9662458601097</v>
+        <v>198.0226669494091</v>
       </c>
       <c r="U6" t="n">
         <v>225.9064191580356</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>142.5590519289129</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>142.0519186400358</v>
       </c>
       <c r="J7" t="n">
-        <v>55.80319063386395</v>
+        <v>54.98356598145195</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.7086076103834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>340.5331064226018</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>367.7804348741806</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>394.4127828192416</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.45439939251328</v>
+        <v>71.86718221175484</v>
       </c>
       <c r="S8" t="n">
-        <v>182.7505867863798</v>
+        <v>168.6006515882987</v>
       </c>
       <c r="T8" t="n">
         <v>218.0494574212279</v>
@@ -27912,7 +27912,7 @@
         <v>251.2534287224722</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>313.6023232720538</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27943,10 +27943,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>130.9192771953027</v>
       </c>
       <c r="G9" t="n">
-        <v>136.726713546119</v>
+        <v>122.5767783480379</v>
       </c>
       <c r="H9" t="n">
         <v>106.2784198293222</v>
@@ -27982,22 +27982,22 @@
         <v>47.71196911443511</v>
       </c>
       <c r="S9" t="n">
-        <v>160.2263144442633</v>
+        <v>147.7630515217934</v>
       </c>
       <c r="T9" t="n">
         <v>197.6785772732988</v>
       </c>
       <c r="U9" t="n">
-        <v>211.7508676975587</v>
+        <v>225.9008028956399</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>237.5450479628385</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>193.3097222810076</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>153.0968859005467</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>157.6296173322416</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7497089320862</v>
+        <v>139.8996441301673</v>
       </c>
       <c r="J10" t="n">
-        <v>42.64974942011024</v>
+        <v>44.33642169572152</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>154.0423608081211</v>
       </c>
       <c r="S10" t="n">
-        <v>202.5415628539149</v>
+        <v>215.0048257763848</v>
       </c>
       <c r="T10" t="n">
         <v>225.7361303972559</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>211.559720190956</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6693748679381994</v>
+        <v>0.669374867938189</v>
       </c>
       <c r="H2" t="n">
-        <v>6.855235366272087</v>
+        <v>6.85523536627198</v>
       </c>
       <c r="I2" t="n">
-        <v>25.80607459618746</v>
+        <v>25.80607459618706</v>
       </c>
       <c r="J2" t="n">
-        <v>56.81235519766981</v>
+        <v>56.81235519766892</v>
       </c>
       <c r="K2" t="n">
-        <v>85.1469933574938</v>
+        <v>85.14699335749248</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6323744721575</v>
+        <v>105.6323744721559</v>
       </c>
       <c r="M2" t="n">
-        <v>117.5363697798534</v>
+        <v>117.5363697798516</v>
       </c>
       <c r="N2" t="n">
-        <v>119.4382311233829</v>
+        <v>119.438231123381</v>
       </c>
       <c r="O2" t="n">
-        <v>112.7821347803224</v>
+        <v>112.7821347803206</v>
       </c>
       <c r="P2" t="n">
-        <v>96.25694272809808</v>
+        <v>96.25694272809658</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.28495527006129</v>
+        <v>72.28495527006017</v>
       </c>
       <c r="R2" t="n">
-        <v>42.04761904812296</v>
+        <v>42.04761904812231</v>
       </c>
       <c r="S2" t="n">
-        <v>15.25337980314174</v>
+        <v>15.2533798031415</v>
       </c>
       <c r="T2" t="n">
-        <v>2.93018848439947</v>
+        <v>2.930188484399424</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05354998943505594</v>
+        <v>0.05354998943505511</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3581471286331605</v>
+        <v>0.3581471286331549</v>
       </c>
       <c r="H3" t="n">
-        <v>3.458947268641313</v>
+        <v>3.45894726864126</v>
       </c>
       <c r="I3" t="n">
-        <v>12.33094280601013</v>
+        <v>12.33094280600994</v>
       </c>
       <c r="J3" t="n">
-        <v>33.83704955213557</v>
+        <v>33.83704955213505</v>
       </c>
       <c r="K3" t="n">
-        <v>57.83290717055733</v>
+        <v>57.83290717055642</v>
       </c>
       <c r="L3" t="n">
-        <v>77.76348071484479</v>
+        <v>77.76348071484358</v>
       </c>
       <c r="M3" t="n">
-        <v>90.74631412779684</v>
+        <v>90.74631412779542</v>
       </c>
       <c r="N3" t="n">
-        <v>93.14809903867449</v>
+        <v>93.14809903867304</v>
       </c>
       <c r="O3" t="n">
-        <v>85.21231266211866</v>
+        <v>85.21231266211734</v>
       </c>
       <c r="P3" t="n">
-        <v>68.39039336153746</v>
+        <v>68.3903933615364</v>
       </c>
       <c r="Q3" t="n">
-        <v>45.71716680587502</v>
+        <v>45.71716680587431</v>
       </c>
       <c r="R3" t="n">
-        <v>22.23653839004834</v>
+        <v>22.236538390048</v>
       </c>
       <c r="S3" t="n">
-        <v>6.65242583228699</v>
+        <v>6.652425832286887</v>
       </c>
       <c r="T3" t="n">
-        <v>1.443584259709975</v>
+        <v>1.443584259709953</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02356231109428688</v>
+        <v>0.02356231109428652</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3002585217042458</v>
+        <v>0.3002585217042411</v>
       </c>
       <c r="H4" t="n">
-        <v>2.669571220243205</v>
+        <v>2.669571220243164</v>
       </c>
       <c r="I4" t="n">
-        <v>9.029592634524048</v>
+        <v>9.029592634523908</v>
       </c>
       <c r="J4" t="n">
-        <v>21.22827748449018</v>
+        <v>21.22827748448985</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88458097618419</v>
+        <v>34.88458097618364</v>
       </c>
       <c r="L4" t="n">
-        <v>44.64025330864761</v>
+        <v>44.64025330864691</v>
       </c>
       <c r="M4" t="n">
-        <v>47.06688808860282</v>
+        <v>47.06688808860208</v>
       </c>
       <c r="N4" t="n">
-        <v>45.94774268952339</v>
+        <v>45.94774268952268</v>
       </c>
       <c r="O4" t="n">
-        <v>42.44017723143287</v>
+        <v>42.44017723143221</v>
       </c>
       <c r="P4" t="n">
-        <v>36.31490338866622</v>
+        <v>36.31490338866566</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.14255675834371</v>
+        <v>25.14255675834332</v>
       </c>
       <c r="R4" t="n">
-        <v>13.50071498499272</v>
+        <v>13.50071498499251</v>
       </c>
       <c r="S4" t="n">
-        <v>5.232687146427628</v>
+        <v>5.232687146427546</v>
       </c>
       <c r="T4" t="n">
-        <v>1.282922774554504</v>
+        <v>1.282922774554484</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01637773754750434</v>
+        <v>0.01637773754750408</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.461131202643</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33268,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33736,10 +33736,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33982,7 +33982,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33991,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34228,10 +34228,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34386,7 +34386,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.994981974642</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
         <v>473.099994678169</v>
@@ -34456,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>6.598225711743296</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="P6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="O7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>14.14993519808115</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="M8" t="n">
+        <v>13.57822064462333</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>14.14993519808115</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13.57822064462333</v>
-      </c>
-      <c r="O8" t="n">
-        <v>14.14993519808115</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>13.57822064462333</v>
       </c>
       <c r="M9" t="n">
         <v>14.14993519808115</v>
@@ -35266,10 +35266,10 @@
         <v>14.14993519808115</v>
       </c>
       <c r="O9" t="n">
-        <v>4.157026679980646</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="P9" t="n">
-        <v>9.421193964642681</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35342,10 +35342,10 @@
         <v>14.14993519808115</v>
       </c>
       <c r="N10" t="n">
+        <v>13.57822064462333</v>
+      </c>
+      <c r="O10" t="n">
         <v>14.14993519808115</v>
-      </c>
-      <c r="O10" t="n">
-        <v>13.57822064462333</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597632</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37876,10 +37876,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38104,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
